--- a/biology/Histoire de la zoologie et de la botanique/Joseph_Marie-Pierre_Théophile_Thirion/Joseph_Marie-Pierre_Théophile_Thirion.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph_Marie-Pierre_Théophile_Thirion/Joseph_Marie-Pierre_Théophile_Thirion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph_Marie-Pierre_Th%C3%A9ophile_Thirion</t>
+          <t>Joseph_Marie-Pierre_Théophile_Thirion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Marie-Pierre Théophile Thirion est un missionnaire et collecteur botanique français, né le 5 mars 1872 à Macheren (Lorraine annexée) et décédé le 8 août 1919 à Tinfan, en Chine, province de Guizhou.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph_Marie-Pierre_Th%C3%A9ophile_Thirion</t>
+          <t>Joseph_Marie-Pierre_Théophile_Thirion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>BIographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille quitte la Lorraine annexée par l'Empire allemand, pour la France et s'établit en Vendée, à la Flouellière. Il entre aux missions étrangères de Paris le 16 octobre 1894 et est ordonné prêtre le 28 juin 1896.
 Il part pour le Guizhou un mois plus tard. Il y étudie le chinois à Guiyang, puis le Dioi à Wangmo où il reste jusqu'à 1899. Il travailla ensuite à Tongzhou (près de Pingtang) jusqu'en 1902, puis à Gantchouen jusqu'en 1905. Il devient curé de Kensy jusqu'en 1910 et à partir de cette date, il exerce ses fonctions à Tinfan où il meurt le 8 août 1919 de problèmes urinaires.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph_Marie-Pierre_Th%C3%A9ophile_Thirion</t>
+          <t>Joseph_Marie-Pierre_Théophile_Thirion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quatre plantes lui ont été dédiées :
 Indigofera thirionni H.Lév. (1913) - Fabacée de Chine (Guizhou)
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph_Marie-Pierre_Th%C3%A9ophile_Thirion</t>
+          <t>Joseph_Marie-Pierre_Théophile_Thirion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Biographie de Joseph Thirion sur le site des Missions étrangères de Paris
  Portail de l’histoire de la zoologie et de la botanique   Portail du catholicisme   Portail du monde chinois   Portail de la botanique                  </t>
